--- a/po_analysis_by_asin/B083HZHP62_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHP62_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,175 +452,175 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45369</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45376</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45383</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45390</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45397</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45404</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45446</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45481</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45488</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45509</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45516</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45523</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>20</v>
@@ -628,23 +628,23 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45530</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45537</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45551</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>60</v>
@@ -652,31 +652,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45558</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45565</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45572</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>160</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45579</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>80</v>
@@ -684,25 +684,265 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45586</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45593</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45600</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
         <v>60</v>
       </c>
     </row>
@@ -717,7 +957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,81 +979,169 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>540</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45444</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>360</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45597</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B22" t="n">
         <v>60</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083HZHP62_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHP62_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -973,7 +974,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1143,6 +1144,1027 @@
       </c>
       <c r="B22" t="n">
         <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-33.91377346080034</v>
+      </c>
+      <c r="D2" t="n">
+        <v>84.50835812154116</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>29</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-30.60793391391861</v>
+      </c>
+      <c r="D3" t="n">
+        <v>96.79930957842242</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-30.521838422514</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.24931747964597</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-28.36821830649793</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.01066659725073</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-23.17819339127341</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.16092506812771</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-27.42749848122975</v>
+      </c>
+      <c r="D7" t="n">
+        <v>89.38623254350451</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-27.29147706572859</v>
+      </c>
+      <c r="D8" t="n">
+        <v>92.36620737017977</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>35</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-29.16372580710974</v>
+      </c>
+      <c r="D9" t="n">
+        <v>94.63342285613723</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.50241021279773</v>
+      </c>
+      <c r="D10" t="n">
+        <v>98.82660669382817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.34950550648996</v>
+      </c>
+      <c r="D11" t="n">
+        <v>99.17125911339423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-19.44504459058796</v>
+      </c>
+      <c r="D12" t="n">
+        <v>98.05001133412399</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-26.65974233426855</v>
+      </c>
+      <c r="D13" t="n">
+        <v>99.72500206504316</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>38</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-22.03532044351896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>99.46845602856459</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>39</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-21.62672927016744</v>
+      </c>
+      <c r="D15" t="n">
+        <v>101.4085184250727</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>39</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.69853992400745</v>
+      </c>
+      <c r="D16" t="n">
+        <v>101.6361604790607</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.78086364589898</v>
+      </c>
+      <c r="D17" t="n">
+        <v>99.11111944603684</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>41</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-18.81430011104524</v>
+      </c>
+      <c r="D18" t="n">
+        <v>100.5645323594071</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-18.28402212896319</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.33246851121989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-20.0989761298836</v>
+      </c>
+      <c r="D20" t="n">
+        <v>101.6769703209886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>43</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-16.70570705671696</v>
+      </c>
+      <c r="D21" t="n">
+        <v>104.8962719889099</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-17.43087776611743</v>
+      </c>
+      <c r="D22" t="n">
+        <v>101.177900993954</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>44</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-11.55932565739617</v>
+      </c>
+      <c r="D23" t="n">
+        <v>105.3045787973088</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>45</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.26557158763374</v>
+      </c>
+      <c r="D24" t="n">
+        <v>106.688902531676</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>45</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-18.68062821046739</v>
+      </c>
+      <c r="D25" t="n">
+        <v>107.0919709102376</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>46</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.3291831829922</v>
+      </c>
+      <c r="D26" t="n">
+        <v>103.3336629847404</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-13.83973619643523</v>
+      </c>
+      <c r="D27" t="n">
+        <v>107.2931822428933</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>50</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-7.86425725236416</v>
+      </c>
+      <c r="D28" t="n">
+        <v>111.264367198625</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-15.95082142636502</v>
+      </c>
+      <c r="D29" t="n">
+        <v>108.9802359926279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>52</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-8.481608227798448</v>
+      </c>
+      <c r="D30" t="n">
+        <v>110.3249269020567</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>53</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-11.48031460758651</v>
+      </c>
+      <c r="D31" t="n">
+        <v>115.0801748329117</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>54</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-7.971511213907437</v>
+      </c>
+      <c r="D32" t="n">
+        <v>114.9683216030478</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.117487621284191</v>
+      </c>
+      <c r="D33" t="n">
+        <v>118.3021658702262</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>56</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-4.841905937757291</v>
+      </c>
+      <c r="D34" t="n">
+        <v>121.2183612769322</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>57</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.004357690607441997</v>
+      </c>
+      <c r="D35" t="n">
+        <v>113.6677789503016</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-5.24769938437939</v>
+      </c>
+      <c r="D36" t="n">
+        <v>118.5637419403558</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>58</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-2.482036729428648</v>
+      </c>
+      <c r="D37" t="n">
+        <v>113.697591501387</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.651300173950574</v>
+      </c>
+      <c r="D38" t="n">
+        <v>121.4592558786156</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>60</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.8002910471462511</v>
+      </c>
+      <c r="D39" t="n">
+        <v>116.8208408913703</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>61</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.86084499315786</v>
+      </c>
+      <c r="D40" t="n">
+        <v>118.8637873429877</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>61</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.976022232496702</v>
+      </c>
+      <c r="D41" t="n">
+        <v>121.9923584117717</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>62</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.921580968679831</v>
+      </c>
+      <c r="D42" t="n">
+        <v>124.046963747304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>62</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.406430037934038</v>
+      </c>
+      <c r="D43" t="n">
+        <v>119.4898505832671</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>63</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.4207341715978626</v>
+      </c>
+      <c r="D44" t="n">
+        <v>122.777957707205</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>64</v>
+      </c>
+      <c r="C45" t="n">
+        <v>4.711264114005934</v>
+      </c>
+      <c r="D45" t="n">
+        <v>128.6809430284088</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>67</v>
+      </c>
+      <c r="C46" t="n">
+        <v>4.303261191787494</v>
+      </c>
+      <c r="D46" t="n">
+        <v>122.6886672451219</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>67</v>
+      </c>
+      <c r="C47" t="n">
+        <v>8.335196247576766</v>
+      </c>
+      <c r="D47" t="n">
+        <v>132.0264176333892</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>70</v>
+      </c>
+      <c r="C48" t="n">
+        <v>8.219502897169871</v>
+      </c>
+      <c r="D48" t="n">
+        <v>131.8291543912719</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>70</v>
+      </c>
+      <c r="C49" t="n">
+        <v>12.21182607515481</v>
+      </c>
+      <c r="D49" t="n">
+        <v>132.6878575967823</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>71</v>
+      </c>
+      <c r="C50" t="n">
+        <v>9.743076190206526</v>
+      </c>
+      <c r="D50" t="n">
+        <v>132.6991487127545</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>72</v>
+      </c>
+      <c r="C51" t="n">
+        <v>12.22485460216983</v>
+      </c>
+      <c r="D51" t="n">
+        <v>136.8534392790265</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>73</v>
+      </c>
+      <c r="C52" t="n">
+        <v>11.55061931508259</v>
+      </c>
+      <c r="D52" t="n">
+        <v>133.8370272314339</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13.17827170815166</v>
+      </c>
+      <c r="D53" t="n">
+        <v>138.6373837930796</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74</v>
+      </c>
+      <c r="C54" t="n">
+        <v>14.10757048900692</v>
+      </c>
+      <c r="D54" t="n">
+        <v>137.1477903185845</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>74</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.46277738576348</v>
+      </c>
+      <c r="D55" t="n">
+        <v>136.5479035953687</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>14.01307964238843</v>
+      </c>
+      <c r="D56" t="n">
+        <v>140.6041362291044</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>76</v>
+      </c>
+      <c r="C57" t="n">
+        <v>20.231633989288</v>
+      </c>
+      <c r="D57" t="n">
+        <v>135.58156420387</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>77</v>
+      </c>
+      <c r="C58" t="n">
+        <v>17.71902135105089</v>
+      </c>
+      <c r="D58" t="n">
+        <v>138.789273573109</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>77</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14.29709503080991</v>
+      </c>
+      <c r="D59" t="n">
+        <v>138.3417559714275</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14.4928688689671</v>
+      </c>
+      <c r="D60" t="n">
+        <v>140.7041356445006</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>78</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16.95531869282704</v>
+      </c>
+      <c r="D61" t="n">
+        <v>137.9162987940807</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>79</v>
+      </c>
+      <c r="C62" t="n">
+        <v>16.15743349183199</v>
+      </c>
+      <c r="D62" t="n">
+        <v>138.0650687666508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>79</v>
+      </c>
+      <c r="C63" t="n">
+        <v>21.13632925312652</v>
+      </c>
+      <c r="D63" t="n">
+        <v>142.6124146471469</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>80</v>
+      </c>
+      <c r="C64" t="n">
+        <v>19.87639854087153</v>
+      </c>
+      <c r="D64" t="n">
+        <v>140.6015443882335</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>81</v>
+      </c>
+      <c r="C65" t="n">
+        <v>22.22228733102735</v>
+      </c>
+      <c r="D65" t="n">
+        <v>142.9638923719481</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>81</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19.41025062425432</v>
+      </c>
+      <c r="D66" t="n">
+        <v>143.1957982613189</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>82</v>
+      </c>
+      <c r="C67" t="n">
+        <v>20.60441950850092</v>
+      </c>
+      <c r="D67" t="n">
+        <v>143.3799940935784</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>82</v>
+      </c>
+      <c r="C68" t="n">
+        <v>22.99036933893212</v>
+      </c>
+      <c r="D68" t="n">
+        <v>142.749254509961</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>83</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25.16308495113393</v>
+      </c>
+      <c r="D69" t="n">
+        <v>145.1250843421077</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>83</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22.40696685885374</v>
+      </c>
+      <c r="D70" t="n">
+        <v>146.9617229524278</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>84</v>
+      </c>
+      <c r="C71" t="n">
+        <v>18.83240643535874</v>
+      </c>
+      <c r="D71" t="n">
+        <v>139.6216209480919</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083HZHP62_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZHP62_po_data.xlsx
@@ -1157,7 +1157,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,16 +1176,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1194,12 +1184,6 @@
       <c r="B2" t="n">
         <v>26</v>
       </c>
-      <c r="C2" t="n">
-        <v>-33.91377346080034</v>
-      </c>
-      <c r="D2" t="n">
-        <v>84.50835812154116</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1208,12 +1192,6 @@
       <c r="B3" t="n">
         <v>29</v>
       </c>
-      <c r="C3" t="n">
-        <v>-30.60793391391861</v>
-      </c>
-      <c r="D3" t="n">
-        <v>96.79930957842242</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1222,12 +1200,6 @@
       <c r="B4" t="n">
         <v>31</v>
       </c>
-      <c r="C4" t="n">
-        <v>-30.521838422514</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.24931747964597</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1236,12 +1208,6 @@
       <c r="B5" t="n">
         <v>32</v>
       </c>
-      <c r="C5" t="n">
-        <v>-28.36821830649793</v>
-      </c>
-      <c r="D5" t="n">
-        <v>90.01066659725073</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1250,12 +1216,6 @@
       <c r="B6" t="n">
         <v>33</v>
       </c>
-      <c r="C6" t="n">
-        <v>-23.17819339127341</v>
-      </c>
-      <c r="D6" t="n">
-        <v>94.16092506812771</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1264,12 +1224,6 @@
       <c r="B7" t="n">
         <v>34</v>
       </c>
-      <c r="C7" t="n">
-        <v>-27.42749848122975</v>
-      </c>
-      <c r="D7" t="n">
-        <v>89.38623254350451</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1278,12 +1232,6 @@
       <c r="B8" t="n">
         <v>35</v>
       </c>
-      <c r="C8" t="n">
-        <v>-27.29147706572859</v>
-      </c>
-      <c r="D8" t="n">
-        <v>92.36620737017977</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1292,12 +1240,6 @@
       <c r="B9" t="n">
         <v>35</v>
       </c>
-      <c r="C9" t="n">
-        <v>-29.16372580710974</v>
-      </c>
-      <c r="D9" t="n">
-        <v>94.63342285613723</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1306,12 +1248,6 @@
       <c r="B10" t="n">
         <v>36</v>
       </c>
-      <c r="C10" t="n">
-        <v>-25.50241021279773</v>
-      </c>
-      <c r="D10" t="n">
-        <v>98.82660669382817</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1320,12 +1256,6 @@
       <c r="B11" t="n">
         <v>36</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.34950550648996</v>
-      </c>
-      <c r="D11" t="n">
-        <v>99.17125911339423</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1334,12 +1264,6 @@
       <c r="B12" t="n">
         <v>37</v>
       </c>
-      <c r="C12" t="n">
-        <v>-19.44504459058796</v>
-      </c>
-      <c r="D12" t="n">
-        <v>98.05001133412399</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1348,12 +1272,6 @@
       <c r="B13" t="n">
         <v>37</v>
       </c>
-      <c r="C13" t="n">
-        <v>-26.65974233426855</v>
-      </c>
-      <c r="D13" t="n">
-        <v>99.72500206504316</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1362,12 +1280,6 @@
       <c r="B14" t="n">
         <v>38</v>
       </c>
-      <c r="C14" t="n">
-        <v>-22.03532044351896</v>
-      </c>
-      <c r="D14" t="n">
-        <v>99.46845602856459</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1376,12 +1288,6 @@
       <c r="B15" t="n">
         <v>39</v>
       </c>
-      <c r="C15" t="n">
-        <v>-21.62672927016744</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101.4085184250727</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1390,12 +1296,6 @@
       <c r="B16" t="n">
         <v>39</v>
       </c>
-      <c r="C16" t="n">
-        <v>-20.69853992400745</v>
-      </c>
-      <c r="D16" t="n">
-        <v>101.6361604790607</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1404,12 +1304,6 @@
       <c r="B17" t="n">
         <v>40</v>
       </c>
-      <c r="C17" t="n">
-        <v>-18.78086364589898</v>
-      </c>
-      <c r="D17" t="n">
-        <v>99.11111944603684</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1418,12 +1312,6 @@
       <c r="B18" t="n">
         <v>41</v>
       </c>
-      <c r="C18" t="n">
-        <v>-18.81430011104524</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100.5645323594071</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1432,12 +1320,6 @@
       <c r="B19" t="n">
         <v>41</v>
       </c>
-      <c r="C19" t="n">
-        <v>-18.28402212896319</v>
-      </c>
-      <c r="D19" t="n">
-        <v>97.33246851121989</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1446,12 +1328,6 @@
       <c r="B20" t="n">
         <v>43</v>
       </c>
-      <c r="C20" t="n">
-        <v>-20.0989761298836</v>
-      </c>
-      <c r="D20" t="n">
-        <v>101.6769703209886</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1460,12 +1336,6 @@
       <c r="B21" t="n">
         <v>43</v>
       </c>
-      <c r="C21" t="n">
-        <v>-16.70570705671696</v>
-      </c>
-      <c r="D21" t="n">
-        <v>104.8962719889099</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1474,12 +1344,6 @@
       <c r="B22" t="n">
         <v>44</v>
       </c>
-      <c r="C22" t="n">
-        <v>-17.43087776611743</v>
-      </c>
-      <c r="D22" t="n">
-        <v>101.177900993954</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1488,12 +1352,6 @@
       <c r="B23" t="n">
         <v>44</v>
       </c>
-      <c r="C23" t="n">
-        <v>-11.55932565739617</v>
-      </c>
-      <c r="D23" t="n">
-        <v>105.3045787973088</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1502,12 +1360,6 @@
       <c r="B24" t="n">
         <v>45</v>
       </c>
-      <c r="C24" t="n">
-        <v>-16.26557158763374</v>
-      </c>
-      <c r="D24" t="n">
-        <v>106.688902531676</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1516,12 +1368,6 @@
       <c r="B25" t="n">
         <v>45</v>
       </c>
-      <c r="C25" t="n">
-        <v>-18.68062821046739</v>
-      </c>
-      <c r="D25" t="n">
-        <v>107.0919709102376</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1530,12 +1376,6 @@
       <c r="B26" t="n">
         <v>46</v>
       </c>
-      <c r="C26" t="n">
-        <v>-17.3291831829922</v>
-      </c>
-      <c r="D26" t="n">
-        <v>103.3336629847404</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1544,12 +1384,6 @@
       <c r="B27" t="n">
         <v>47</v>
       </c>
-      <c r="C27" t="n">
-        <v>-13.83973619643523</v>
-      </c>
-      <c r="D27" t="n">
-        <v>107.2931822428933</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1558,12 +1392,6 @@
       <c r="B28" t="n">
         <v>50</v>
       </c>
-      <c r="C28" t="n">
-        <v>-7.86425725236416</v>
-      </c>
-      <c r="D28" t="n">
-        <v>111.264367198625</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1572,12 +1400,6 @@
       <c r="B29" t="n">
         <v>51</v>
       </c>
-      <c r="C29" t="n">
-        <v>-15.95082142636502</v>
-      </c>
-      <c r="D29" t="n">
-        <v>108.9802359926279</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1586,12 +1408,6 @@
       <c r="B30" t="n">
         <v>52</v>
       </c>
-      <c r="C30" t="n">
-        <v>-8.481608227798448</v>
-      </c>
-      <c r="D30" t="n">
-        <v>110.3249269020567</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1600,12 +1416,6 @@
       <c r="B31" t="n">
         <v>53</v>
       </c>
-      <c r="C31" t="n">
-        <v>-11.48031460758651</v>
-      </c>
-      <c r="D31" t="n">
-        <v>115.0801748329117</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1614,12 +1424,6 @@
       <c r="B32" t="n">
         <v>54</v>
       </c>
-      <c r="C32" t="n">
-        <v>-7.971511213907437</v>
-      </c>
-      <c r="D32" t="n">
-        <v>114.9683216030478</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1628,12 +1432,6 @@
       <c r="B33" t="n">
         <v>56</v>
       </c>
-      <c r="C33" t="n">
-        <v>-3.117487621284191</v>
-      </c>
-      <c r="D33" t="n">
-        <v>118.3021658702262</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1642,12 +1440,6 @@
       <c r="B34" t="n">
         <v>56</v>
       </c>
-      <c r="C34" t="n">
-        <v>-4.841905937757291</v>
-      </c>
-      <c r="D34" t="n">
-        <v>121.2183612769322</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1656,12 +1448,6 @@
       <c r="B35" t="n">
         <v>57</v>
       </c>
-      <c r="C35" t="n">
-        <v>-0.004357690607441997</v>
-      </c>
-      <c r="D35" t="n">
-        <v>113.6677789503016</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1670,12 +1456,6 @@
       <c r="B36" t="n">
         <v>57</v>
       </c>
-      <c r="C36" t="n">
-        <v>-5.24769938437939</v>
-      </c>
-      <c r="D36" t="n">
-        <v>118.5637419403558</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1684,12 +1464,6 @@
       <c r="B37" t="n">
         <v>58</v>
       </c>
-      <c r="C37" t="n">
-        <v>-2.482036729428648</v>
-      </c>
-      <c r="D37" t="n">
-        <v>113.697591501387</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1698,12 +1472,6 @@
       <c r="B38" t="n">
         <v>59</v>
       </c>
-      <c r="C38" t="n">
-        <v>-1.651300173950574</v>
-      </c>
-      <c r="D38" t="n">
-        <v>121.4592558786156</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1712,12 +1480,6 @@
       <c r="B39" t="n">
         <v>60</v>
       </c>
-      <c r="C39" t="n">
-        <v>-0.8002910471462511</v>
-      </c>
-      <c r="D39" t="n">
-        <v>116.8208408913703</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1726,12 +1488,6 @@
       <c r="B40" t="n">
         <v>61</v>
       </c>
-      <c r="C40" t="n">
-        <v>1.86084499315786</v>
-      </c>
-      <c r="D40" t="n">
-        <v>118.8637873429877</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1740,12 +1496,6 @@
       <c r="B41" t="n">
         <v>61</v>
       </c>
-      <c r="C41" t="n">
-        <v>-2.976022232496702</v>
-      </c>
-      <c r="D41" t="n">
-        <v>121.9923584117717</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1754,12 +1504,6 @@
       <c r="B42" t="n">
         <v>62</v>
       </c>
-      <c r="C42" t="n">
-        <v>0.921580968679831</v>
-      </c>
-      <c r="D42" t="n">
-        <v>124.046963747304</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1768,12 +1512,6 @@
       <c r="B43" t="n">
         <v>62</v>
       </c>
-      <c r="C43" t="n">
-        <v>1.406430037934038</v>
-      </c>
-      <c r="D43" t="n">
-        <v>119.4898505832671</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1782,12 +1520,6 @@
       <c r="B44" t="n">
         <v>63</v>
       </c>
-      <c r="C44" t="n">
-        <v>0.4207341715978626</v>
-      </c>
-      <c r="D44" t="n">
-        <v>122.777957707205</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1796,12 +1528,6 @@
       <c r="B45" t="n">
         <v>64</v>
       </c>
-      <c r="C45" t="n">
-        <v>4.711264114005934</v>
-      </c>
-      <c r="D45" t="n">
-        <v>128.6809430284088</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1810,12 +1536,6 @@
       <c r="B46" t="n">
         <v>67</v>
       </c>
-      <c r="C46" t="n">
-        <v>4.303261191787494</v>
-      </c>
-      <c r="D46" t="n">
-        <v>122.6886672451219</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1824,12 +1544,6 @@
       <c r="B47" t="n">
         <v>67</v>
       </c>
-      <c r="C47" t="n">
-        <v>8.335196247576766</v>
-      </c>
-      <c r="D47" t="n">
-        <v>132.0264176333892</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1838,12 +1552,6 @@
       <c r="B48" t="n">
         <v>70</v>
       </c>
-      <c r="C48" t="n">
-        <v>8.219502897169871</v>
-      </c>
-      <c r="D48" t="n">
-        <v>131.8291543912719</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1852,12 +1560,6 @@
       <c r="B49" t="n">
         <v>70</v>
       </c>
-      <c r="C49" t="n">
-        <v>12.21182607515481</v>
-      </c>
-      <c r="D49" t="n">
-        <v>132.6878575967823</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1866,12 +1568,6 @@
       <c r="B50" t="n">
         <v>71</v>
       </c>
-      <c r="C50" t="n">
-        <v>9.743076190206526</v>
-      </c>
-      <c r="D50" t="n">
-        <v>132.6991487127545</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1880,12 +1576,6 @@
       <c r="B51" t="n">
         <v>72</v>
       </c>
-      <c r="C51" t="n">
-        <v>12.22485460216983</v>
-      </c>
-      <c r="D51" t="n">
-        <v>136.8534392790265</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1894,12 +1584,6 @@
       <c r="B52" t="n">
         <v>73</v>
       </c>
-      <c r="C52" t="n">
-        <v>11.55061931508259</v>
-      </c>
-      <c r="D52" t="n">
-        <v>133.8370272314339</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1908,12 +1592,6 @@
       <c r="B53" t="n">
         <v>73</v>
       </c>
-      <c r="C53" t="n">
-        <v>13.17827170815166</v>
-      </c>
-      <c r="D53" t="n">
-        <v>138.6373837930796</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1922,12 +1600,6 @@
       <c r="B54" t="n">
         <v>74</v>
       </c>
-      <c r="C54" t="n">
-        <v>14.10757048900692</v>
-      </c>
-      <c r="D54" t="n">
-        <v>137.1477903185845</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1936,12 +1608,6 @@
       <c r="B55" t="n">
         <v>74</v>
       </c>
-      <c r="C55" t="n">
-        <v>13.46277738576348</v>
-      </c>
-      <c r="D55" t="n">
-        <v>136.5479035953687</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1950,12 +1616,6 @@
       <c r="B56" t="n">
         <v>75</v>
       </c>
-      <c r="C56" t="n">
-        <v>14.01307964238843</v>
-      </c>
-      <c r="D56" t="n">
-        <v>140.6041362291044</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1964,12 +1624,6 @@
       <c r="B57" t="n">
         <v>76</v>
       </c>
-      <c r="C57" t="n">
-        <v>20.231633989288</v>
-      </c>
-      <c r="D57" t="n">
-        <v>135.58156420387</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1978,12 +1632,6 @@
       <c r="B58" t="n">
         <v>77</v>
       </c>
-      <c r="C58" t="n">
-        <v>17.71902135105089</v>
-      </c>
-      <c r="D58" t="n">
-        <v>138.789273573109</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1992,12 +1640,6 @@
       <c r="B59" t="n">
         <v>77</v>
       </c>
-      <c r="C59" t="n">
-        <v>14.29709503080991</v>
-      </c>
-      <c r="D59" t="n">
-        <v>138.3417559714275</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2006,12 +1648,6 @@
       <c r="B60" t="n">
         <v>78</v>
       </c>
-      <c r="C60" t="n">
-        <v>14.4928688689671</v>
-      </c>
-      <c r="D60" t="n">
-        <v>140.7041356445006</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2020,12 +1656,6 @@
       <c r="B61" t="n">
         <v>78</v>
       </c>
-      <c r="C61" t="n">
-        <v>16.95531869282704</v>
-      </c>
-      <c r="D61" t="n">
-        <v>137.9162987940807</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2034,12 +1664,6 @@
       <c r="B62" t="n">
         <v>79</v>
       </c>
-      <c r="C62" t="n">
-        <v>16.15743349183199</v>
-      </c>
-      <c r="D62" t="n">
-        <v>138.0650687666508</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2048,12 +1672,6 @@
       <c r="B63" t="n">
         <v>79</v>
       </c>
-      <c r="C63" t="n">
-        <v>21.13632925312652</v>
-      </c>
-      <c r="D63" t="n">
-        <v>142.6124146471469</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2062,12 +1680,6 @@
       <c r="B64" t="n">
         <v>80</v>
       </c>
-      <c r="C64" t="n">
-        <v>19.87639854087153</v>
-      </c>
-      <c r="D64" t="n">
-        <v>140.6015443882335</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2076,12 +1688,6 @@
       <c r="B65" t="n">
         <v>81</v>
       </c>
-      <c r="C65" t="n">
-        <v>22.22228733102735</v>
-      </c>
-      <c r="D65" t="n">
-        <v>142.9638923719481</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2090,12 +1696,6 @@
       <c r="B66" t="n">
         <v>81</v>
       </c>
-      <c r="C66" t="n">
-        <v>19.41025062425432</v>
-      </c>
-      <c r="D66" t="n">
-        <v>143.1957982613189</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2104,12 +1704,6 @@
       <c r="B67" t="n">
         <v>82</v>
       </c>
-      <c r="C67" t="n">
-        <v>20.60441950850092</v>
-      </c>
-      <c r="D67" t="n">
-        <v>143.3799940935784</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2118,12 +1712,6 @@
       <c r="B68" t="n">
         <v>82</v>
       </c>
-      <c r="C68" t="n">
-        <v>22.99036933893212</v>
-      </c>
-      <c r="D68" t="n">
-        <v>142.749254509961</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2132,12 +1720,6 @@
       <c r="B69" t="n">
         <v>83</v>
       </c>
-      <c r="C69" t="n">
-        <v>25.16308495113393</v>
-      </c>
-      <c r="D69" t="n">
-        <v>145.1250843421077</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2146,12 +1728,6 @@
       <c r="B70" t="n">
         <v>83</v>
       </c>
-      <c r="C70" t="n">
-        <v>22.40696685885374</v>
-      </c>
-      <c r="D70" t="n">
-        <v>146.9617229524278</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2159,12 +1735,6 @@
       </c>
       <c r="B71" t="n">
         <v>84</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18.83240643535874</v>
-      </c>
-      <c r="D71" t="n">
-        <v>139.6216209480919</v>
       </c>
     </row>
   </sheetData>
